--- a/SpotAct.xlsx
+++ b/SpotAct.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -643,6 +643,27 @@
   </si>
   <si>
     <t>CPR/1'' prop</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>GRP</t>
+  </si>
+  <si>
+    <t>CPR_sec</t>
+  </si>
+  <si>
+    <t>Dur</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Channel</t>
   </si>
 </sst>
 </file>
@@ -653,9 +674,9 @@
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="###,##0.00"/>
     <numFmt numFmtId="166" formatCode="###,##0.0"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +703,13 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="161"/>
@@ -738,10 +766,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -763,14 +792,14 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,7 +1255,7 @@
       <c r="L7" s="15">
         <v>15.21</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="23">
         <f>+J7/I7</f>
         <v>10.648076923076925</v>
       </c>
@@ -1268,7 +1297,7 @@
       <c r="L8" s="15">
         <v>10.86</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="23">
         <f t="shared" ref="M8:M71" si="0">+J8/I8</f>
         <v>26.071153846153848</v>
       </c>
@@ -1310,7 +1339,7 @@
       <c r="L9" s="15">
         <v>5.87</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <f t="shared" si="0"/>
         <v>23.46423076923077</v>
       </c>
@@ -1352,7 +1381,7 @@
       <c r="L10" s="15">
         <v>4.93</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="23">
         <f t="shared" si="0"/>
         <v>13.31</v>
       </c>
@@ -1394,7 +1423,7 @@
       <c r="L11" s="15">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="23">
         <f t="shared" si="0"/>
         <v>15.642692307692307</v>
       </c>
@@ -1436,7 +1465,7 @@
       <c r="L12" s="15">
         <v>9.31</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <f t="shared" si="0"/>
         <v>45.624615384615382</v>
       </c>
@@ -1478,7 +1507,7 @@
       <c r="L13" s="15">
         <v>13.04</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <f t="shared" si="0"/>
         <v>13.035769230769231</v>
       </c>
@@ -1520,7 +1549,7 @@
       <c r="L14" s="15">
         <v>13.04</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="23">
         <f t="shared" si="0"/>
         <v>58.660000000000004</v>
       </c>
@@ -1562,7 +1591,7 @@
       <c r="L15" s="15">
         <v>8.32</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <f t="shared" si="0"/>
         <v>39.93</v>
       </c>
@@ -1604,7 +1633,7 @@
       <c r="L16" s="15">
         <v>5.79</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="23">
         <f t="shared" si="0"/>
         <v>26.071153846153848</v>
       </c>
@@ -1646,7 +1675,7 @@
       <c r="L17" s="15">
         <v>5.99</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="23">
         <f t="shared" si="0"/>
         <v>52.142307692307696</v>
       </c>
@@ -1688,7 +1717,7 @@
       <c r="L18" s="15">
         <v>20.48</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="23">
         <f t="shared" si="0"/>
         <v>26.62</v>
       </c>
@@ -1730,7 +1759,7 @@
       <c r="L19" s="15">
         <v>7.3</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="23">
         <f t="shared" si="0"/>
         <v>18.25</v>
       </c>
@@ -1758,7 +1787,7 @@
       <c r="L20" s="11">
         <v>8.4499999999999993</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="23">
         <f t="shared" si="0"/>
         <v>28.420710059171601</v>
       </c>
@@ -1800,7 +1829,7 @@
       <c r="L21" s="15">
         <v>13.31</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="23">
         <f t="shared" si="0"/>
         <v>10.648076923076925</v>
       </c>
@@ -1842,7 +1871,7 @@
       <c r="L22" s="15">
         <v>20.86</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="23">
         <f t="shared" si="0"/>
         <v>10.428461538461537</v>
       </c>
@@ -1884,7 +1913,7 @@
       <c r="L23" s="15">
         <v>26.62</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="23">
         <f t="shared" si="0"/>
         <v>13.31</v>
       </c>
@@ -1926,7 +1955,7 @@
       <c r="L24" s="15">
         <v>11.09</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="23">
         <f t="shared" si="0"/>
         <v>13.31</v>
       </c>
@@ -1968,7 +1997,7 @@
       <c r="L25" s="15">
         <v>13.04</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="23">
         <f t="shared" si="0"/>
         <v>19.553461538461537</v>
       </c>
@@ -2010,7 +2039,7 @@
       <c r="L26" s="15">
         <v>13.04</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="23">
         <f t="shared" si="0"/>
         <v>19.553461538461537</v>
       </c>
@@ -2052,7 +2081,7 @@
       <c r="L27" s="15">
         <v>12.22</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="23">
         <f t="shared" si="0"/>
         <v>19.553461538461537</v>
       </c>
@@ -2094,7 +2123,7 @@
       <c r="L28" s="15">
         <v>19.55</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="23">
         <f t="shared" si="0"/>
         <v>19.553461538461537</v>
       </c>
@@ -2136,7 +2165,7 @@
       <c r="L29" s="15">
         <v>11.88</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="23">
         <f t="shared" si="0"/>
         <v>66.55</v>
       </c>
@@ -2178,7 +2207,7 @@
       <c r="L30" s="15">
         <v>18.62</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="23">
         <f t="shared" si="0"/>
         <v>13.035769230769231</v>
       </c>
@@ -2220,7 +2249,7 @@
       <c r="L31" s="15">
         <v>21.73</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="23">
         <f t="shared" si="0"/>
         <v>13.035769230769231</v>
       </c>
@@ -2262,7 +2291,7 @@
       <c r="L32" s="15">
         <v>8.26</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="23">
         <f t="shared" si="0"/>
         <v>23.958076923076923</v>
       </c>
@@ -2304,7 +2333,7 @@
       <c r="L33" s="15">
         <v>9.58</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="23">
         <f t="shared" si="0"/>
         <v>23.958076923076923</v>
       </c>
@@ -2346,7 +2375,7 @@
       <c r="L34" s="15">
         <v>12.61</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="23">
         <f t="shared" si="0"/>
         <v>23.958076923076923</v>
       </c>
@@ -2388,7 +2417,7 @@
       <c r="L35" s="15">
         <v>26.62</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="23">
         <f t="shared" si="0"/>
         <v>23.958076923076923</v>
       </c>
@@ -2430,7 +2459,7 @@
       <c r="L36" s="15">
         <v>32.590000000000003</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="23">
         <f t="shared" si="0"/>
         <v>32.588846153846148</v>
       </c>
@@ -2472,7 +2501,7 @@
       <c r="L37" s="15">
         <v>32.590000000000003</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="23">
         <f t="shared" si="0"/>
         <v>32.588846153846148</v>
       </c>
@@ -2500,7 +2529,7 @@
       <c r="L38" s="11">
         <v>14.77</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="23">
         <f t="shared" si="0"/>
         <v>22.325950226244345</v>
       </c>
@@ -2542,7 +2571,7 @@
       <c r="L39" s="15">
         <v>6.05</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="23">
         <f t="shared" si="0"/>
         <v>39.93</v>
       </c>
@@ -2584,7 +2613,7 @@
       <c r="L40" s="15">
         <v>8.15</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="23">
         <f t="shared" si="0"/>
         <v>19.553461538461537</v>
       </c>
@@ -2626,7 +2655,7 @@
       <c r="L41" s="15">
         <v>11.59</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="23">
         <f t="shared" si="0"/>
         <v>41.713846153846148</v>
       </c>
@@ -2668,7 +2697,7 @@
       <c r="L42" s="15">
         <v>11.17</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="23">
         <f t="shared" si="0"/>
         <v>46.928076923076929</v>
       </c>
@@ -2710,7 +2739,7 @@
       <c r="L43" s="15">
         <v>10.65</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="23">
         <f t="shared" si="0"/>
         <v>21.29615384615385</v>
       </c>
@@ -2752,7 +2781,7 @@
       <c r="L44" s="15">
         <v>14.48</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="23">
         <f t="shared" si="0"/>
         <v>39.106923076923074</v>
       </c>
@@ -2794,7 +2823,7 @@
       <c r="L45" s="15">
         <v>8.15</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="23">
         <f t="shared" si="0"/>
         <v>39.106923076923074</v>
       </c>
@@ -2836,7 +2865,7 @@
       <c r="L46" s="15">
         <v>9.91</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="23">
         <f t="shared" si="0"/>
         <v>127.77615384615385</v>
       </c>
@@ -2878,7 +2907,7 @@
       <c r="L47" s="15">
         <v>12.55</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="23">
         <f t="shared" si="0"/>
         <v>33.892692307692307</v>
       </c>
@@ -2920,7 +2949,7 @@
       <c r="L48" s="15">
         <v>0.5</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="23">
         <f t="shared" si="0"/>
         <v>2.3046153846153845</v>
       </c>
@@ -2962,7 +2991,7 @@
       <c r="L49" s="15">
         <v>13.31</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="23">
         <f t="shared" si="0"/>
         <v>29.281923076923078</v>
       </c>
@@ -3004,7 +3033,7 @@
       <c r="L50" s="15">
         <v>1.44</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="23">
         <f t="shared" si="0"/>
         <v>2.4553846153846157</v>
       </c>
@@ -3046,7 +3075,7 @@
       <c r="L51" s="15">
         <v>12.77</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="23">
         <f t="shared" si="0"/>
         <v>189.01576923076922</v>
       </c>
@@ -3088,7 +3117,7 @@
       <c r="L52" s="15">
         <v>19.97</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="23">
         <f t="shared" si="0"/>
         <v>123.83807692307693</v>
       </c>
@@ -3116,7 +3145,7 @@
       <c r="L53" s="11">
         <v>10.59</v>
       </c>
-      <c r="M53" s="24">
+      <c r="M53" s="23">
         <f t="shared" si="0"/>
         <v>54.014230769230771</v>
       </c>
@@ -3158,7 +3187,7 @@
       <c r="L54" s="15">
         <v>9.31</v>
       </c>
-      <c r="M54" s="24">
+      <c r="M54" s="23">
         <f t="shared" si="0"/>
         <v>39.106923076923074</v>
       </c>
@@ -3200,7 +3229,7 @@
       <c r="L55" s="15">
         <v>11.72</v>
       </c>
-      <c r="M55" s="24">
+      <c r="M55" s="23">
         <f t="shared" si="0"/>
         <v>127.77615384615385</v>
       </c>
@@ -3242,7 +3271,7 @@
       <c r="L56" s="15">
         <v>15.17</v>
       </c>
-      <c r="M56" s="24">
+      <c r="M56" s="23">
         <f t="shared" si="0"/>
         <v>28.678076923076922</v>
       </c>
@@ -3284,7 +3313,7 @@
       <c r="L57" s="15">
         <v>10.86</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="23">
         <f t="shared" si="0"/>
         <v>31.285384615384615</v>
       </c>
@@ -3326,7 +3355,7 @@
       <c r="L58" s="15">
         <v>15.64</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M58" s="23">
         <f t="shared" si="0"/>
         <v>78.21346153846153</v>
       </c>
@@ -3368,7 +3397,7 @@
       <c r="L59" s="15">
         <v>17.22</v>
       </c>
-      <c r="M59" s="24">
+      <c r="M59" s="23">
         <f t="shared" si="0"/>
         <v>29.281923076923078</v>
       </c>
@@ -3410,7 +3439,7 @@
       <c r="L60" s="15">
         <v>15.62</v>
       </c>
-      <c r="M60" s="24">
+      <c r="M60" s="23">
         <f t="shared" si="0"/>
         <v>149.90923076923076</v>
       </c>
@@ -3452,7 +3481,7 @@
       <c r="L61" s="15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M61" s="24">
+      <c r="M61" s="23">
         <f t="shared" si="0"/>
         <v>3.2307692307692308</v>
       </c>
@@ -3494,7 +3523,7 @@
       <c r="L62" s="15">
         <v>14.64</v>
       </c>
-      <c r="M62" s="24">
+      <c r="M62" s="23">
         <f t="shared" si="0"/>
         <v>29.281923076923078</v>
       </c>
@@ -3522,7 +3551,7 @@
       <c r="L63" s="11">
         <v>11.81</v>
       </c>
-      <c r="M63" s="24">
+      <c r="M63" s="23">
         <f t="shared" si="0"/>
         <v>57.41820512820513</v>
       </c>
@@ -3564,7 +3593,7 @@
       <c r="L64" s="15">
         <v>10.51</v>
       </c>
-      <c r="M64" s="24">
+      <c r="M64" s="23">
         <f t="shared" si="0"/>
         <v>65.178076923076929</v>
       </c>
@@ -3606,7 +3635,7 @@
       <c r="L65" s="15">
         <v>11.83</v>
       </c>
-      <c r="M65" s="24">
+      <c r="M65" s="23">
         <f t="shared" si="0"/>
         <v>21.29615384615385</v>
       </c>
@@ -3648,7 +3677,7 @@
       <c r="L66" s="15">
         <v>10.57</v>
       </c>
-      <c r="M66" s="24">
+      <c r="M66" s="23">
         <f t="shared" si="0"/>
         <v>39.106923076923074</v>
       </c>
@@ -3690,7 +3719,7 @@
       <c r="L67" s="15">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M67" s="24">
+      <c r="M67" s="23">
         <f t="shared" si="0"/>
         <v>106.48</v>
       </c>
@@ -3732,7 +3761,7 @@
       <c r="L68" s="15">
         <v>17.7</v>
       </c>
-      <c r="M68" s="24">
+      <c r="M68" s="23">
         <f t="shared" si="0"/>
         <v>28.678076923076922</v>
       </c>
@@ -3774,7 +3803,7 @@
       <c r="L69" s="15">
         <v>11.55</v>
       </c>
-      <c r="M69" s="24">
+      <c r="M69" s="23">
         <f t="shared" si="0"/>
         <v>91.248846153846145</v>
       </c>
@@ -3816,7 +3845,7 @@
       <c r="L70" s="15">
         <v>0.65</v>
       </c>
-      <c r="M70" s="24">
+      <c r="M70" s="23">
         <f t="shared" si="0"/>
         <v>3.2307692307692308</v>
       </c>
@@ -3858,7 +3887,7 @@
       <c r="L71" s="15">
         <v>0.83</v>
       </c>
-      <c r="M71" s="24">
+      <c r="M71" s="23">
         <f t="shared" si="0"/>
         <v>2.3046153846153845</v>
       </c>
@@ -3900,7 +3929,7 @@
       <c r="L72" s="15">
         <v>11.77</v>
       </c>
-      <c r="M72" s="24">
+      <c r="M72" s="23">
         <f t="shared" ref="M72:M125" si="1">+J72/I72</f>
         <v>33.892692307692307</v>
       </c>
@@ -3942,7 +3971,7 @@
       <c r="L73" s="15">
         <v>16.27</v>
       </c>
-      <c r="M73" s="24">
+      <c r="M73" s="23">
         <f t="shared" si="1"/>
         <v>29.281923076923078</v>
       </c>
@@ -3970,7 +3999,7 @@
       <c r="L74" s="11">
         <v>9.19</v>
       </c>
-      <c r="M74" s="24">
+      <c r="M74" s="23">
         <f t="shared" si="1"/>
         <v>42.069769230769225</v>
       </c>
@@ -4012,7 +4041,7 @@
       <c r="L75" s="15">
         <v>11.85</v>
       </c>
-      <c r="M75" s="24">
+      <c r="M75" s="23">
         <f t="shared" si="1"/>
         <v>65.178076923076929</v>
       </c>
@@ -4054,7 +4083,7 @@
       <c r="L76" s="15">
         <v>10.14</v>
       </c>
-      <c r="M76" s="24">
+      <c r="M76" s="23">
         <f t="shared" si="1"/>
         <v>21.29615384615385</v>
       </c>
@@ -4096,7 +4125,7 @@
       <c r="L77" s="15">
         <v>10.029999999999999</v>
       </c>
-      <c r="M77" s="24">
+      <c r="M77" s="23">
         <f t="shared" si="1"/>
         <v>39.106923076923074</v>
       </c>
@@ -4138,7 +4167,7 @@
       <c r="L78" s="15">
         <v>9.9</v>
       </c>
-      <c r="M78" s="24">
+      <c r="M78" s="23">
         <f t="shared" si="1"/>
         <v>77.198076923076925</v>
       </c>
@@ -4180,7 +4209,7 @@
       <c r="L79" s="15">
         <v>0.74</v>
       </c>
-      <c r="M79" s="24">
+      <c r="M79" s="23">
         <f t="shared" si="1"/>
         <v>2.145</v>
       </c>
@@ -4222,7 +4251,7 @@
       <c r="L80" s="15">
         <v>10.99</v>
       </c>
-      <c r="M80" s="24">
+      <c r="M80" s="23">
         <f t="shared" si="1"/>
         <v>28.678076923076922</v>
       </c>
@@ -4264,7 +4293,7 @@
       <c r="L81" s="15">
         <v>14.95</v>
       </c>
-      <c r="M81" s="24">
+      <c r="M81" s="23">
         <f t="shared" si="1"/>
         <v>41.713846153846148</v>
       </c>
@@ -4306,7 +4335,7 @@
       <c r="L82" s="15">
         <v>0.83</v>
       </c>
-      <c r="M82" s="24">
+      <c r="M82" s="23">
         <f t="shared" si="1"/>
         <v>1.2392307692307691</v>
       </c>
@@ -4334,7 +4363,7 @@
       <c r="L83" s="11">
         <v>9.5</v>
       </c>
-      <c r="M83" s="24">
+      <c r="M83" s="23">
         <f t="shared" si="1"/>
         <v>34.569375000000001</v>
       </c>
@@ -4376,7 +4405,7 @@
       <c r="L84" s="15">
         <v>11.83</v>
       </c>
-      <c r="M84" s="24">
+      <c r="M84" s="23">
         <f t="shared" si="1"/>
         <v>21.29615384615385</v>
       </c>
@@ -4418,7 +4447,7 @@
       <c r="L85" s="15">
         <v>8.69</v>
       </c>
-      <c r="M85" s="24">
+      <c r="M85" s="23">
         <f t="shared" si="1"/>
         <v>39.106923076923074</v>
       </c>
@@ -4460,7 +4489,7 @@
       <c r="L86" s="15">
         <v>11.74</v>
       </c>
-      <c r="M86" s="24">
+      <c r="M86" s="23">
         <f t="shared" si="1"/>
         <v>59.894999999999996</v>
       </c>
@@ -4502,7 +4531,7 @@
       <c r="L87" s="15">
         <v>16.77</v>
       </c>
-      <c r="M87" s="24">
+      <c r="M87" s="23">
         <f t="shared" si="1"/>
         <v>28.678076923076922</v>
       </c>
@@ -4544,7 +4573,7 @@
       <c r="L88" s="15">
         <v>15.56</v>
       </c>
-      <c r="M88" s="24">
+      <c r="M88" s="23">
         <f t="shared" si="1"/>
         <v>104.28461538461539</v>
       </c>
@@ -4586,7 +4615,7 @@
       <c r="L89" s="15">
         <v>11.93</v>
       </c>
-      <c r="M89" s="24">
+      <c r="M89" s="23">
         <f t="shared" si="1"/>
         <v>84.731153846153859</v>
       </c>
@@ -4628,7 +4657,7 @@
       <c r="L90" s="15">
         <v>0.77</v>
       </c>
-      <c r="M90" s="24">
+      <c r="M90" s="23">
         <f t="shared" si="1"/>
         <v>2.2246153846153849</v>
       </c>
@@ -4670,7 +4699,7 @@
       <c r="L91" s="15">
         <v>10.86</v>
       </c>
-      <c r="M91" s="24">
+      <c r="M91" s="23">
         <f t="shared" si="1"/>
         <v>31.285384615384615</v>
       </c>
@@ -4712,7 +4741,7 @@
       <c r="L92" s="15">
         <v>0.69</v>
       </c>
-      <c r="M92" s="24">
+      <c r="M92" s="23">
         <f t="shared" si="1"/>
         <v>1.2392307692307691</v>
       </c>
@@ -4740,7 +4769,7 @@
       <c r="L93" s="11">
         <v>10.81</v>
       </c>
-      <c r="M93" s="24">
+      <c r="M93" s="23">
         <f t="shared" si="1"/>
         <v>41.415683760683763</v>
       </c>
@@ -4782,7 +4811,7 @@
       <c r="L94" s="15">
         <v>8.19</v>
       </c>
-      <c r="M94" s="24">
+      <c r="M94" s="23">
         <f t="shared" si="1"/>
         <v>10.648076923076925</v>
       </c>
@@ -4824,7 +4853,7 @@
       <c r="L95" s="15">
         <v>10.29</v>
       </c>
-      <c r="M95" s="24">
+      <c r="M95" s="23">
         <f t="shared" si="1"/>
         <v>19.553461538461537</v>
       </c>
@@ -4866,7 +4895,7 @@
       <c r="L96" s="15">
         <v>0.6</v>
       </c>
-      <c r="M96" s="24">
+      <c r="M96" s="23">
         <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
@@ -4908,7 +4937,7 @@
       <c r="L97" s="15">
         <v>9.66</v>
       </c>
-      <c r="M97" s="24">
+      <c r="M97" s="23">
         <f t="shared" si="1"/>
         <v>26.071153846153848</v>
       </c>
@@ -4950,7 +4979,7 @@
       <c r="L98" s="15">
         <v>9.39</v>
       </c>
-      <c r="M98" s="24">
+      <c r="M98" s="23">
         <f t="shared" si="1"/>
         <v>23.46423076923077</v>
       </c>
@@ -4992,7 +5021,7 @@
       <c r="L99" s="15">
         <v>5.55</v>
       </c>
-      <c r="M99" s="24">
+      <c r="M99" s="23">
         <f t="shared" si="1"/>
         <v>13.31</v>
       </c>
@@ -5034,7 +5063,7 @@
       <c r="L100" s="15">
         <v>8.69</v>
       </c>
-      <c r="M100" s="24">
+      <c r="M100" s="23">
         <f t="shared" si="1"/>
         <v>15.642692307692307</v>
       </c>
@@ -5076,7 +5105,7 @@
       <c r="L101" s="15">
         <v>7.67</v>
       </c>
-      <c r="M101" s="24">
+      <c r="M101" s="23">
         <f t="shared" si="1"/>
         <v>13.035769230769231</v>
       </c>
@@ -5118,7 +5147,7 @@
       <c r="L102" s="15">
         <v>9.5399999999999991</v>
       </c>
-      <c r="M102" s="24">
+      <c r="M102" s="23">
         <f t="shared" si="1"/>
         <v>39.106923076923074</v>
       </c>
@@ -5160,7 +5189,7 @@
       <c r="L103" s="15">
         <v>8.32</v>
       </c>
-      <c r="M103" s="24">
+      <c r="M103" s="23">
         <f t="shared" si="1"/>
         <v>39.93</v>
       </c>
@@ -5202,7 +5231,7 @@
       <c r="L104" s="15">
         <v>12.07</v>
       </c>
-      <c r="M104" s="24">
+      <c r="M104" s="23">
         <f t="shared" si="1"/>
         <v>26.071153846153848</v>
       </c>
@@ -5244,7 +5273,7 @@
       <c r="L105" s="15">
         <v>0.79</v>
       </c>
-      <c r="M105" s="24">
+      <c r="M105" s="23">
         <f t="shared" si="1"/>
         <v>3.1546153846153846</v>
       </c>
@@ -5286,7 +5315,7 @@
       <c r="L106" s="15">
         <v>15.85</v>
       </c>
-      <c r="M106" s="24">
+      <c r="M106" s="23">
         <f t="shared" si="1"/>
         <v>58.660000000000004</v>
       </c>
@@ -5328,7 +5357,7 @@
       <c r="L107" s="15">
         <v>12.68</v>
       </c>
-      <c r="M107" s="24">
+      <c r="M107" s="23">
         <f t="shared" si="1"/>
         <v>26.62</v>
       </c>
@@ -5370,7 +5399,7 @@
       <c r="L108" s="15">
         <v>0.91</v>
       </c>
-      <c r="M108" s="24">
+      <c r="M108" s="23">
         <f t="shared" si="1"/>
         <v>1.8250000000000002</v>
       </c>
@@ -5398,7 +5427,7 @@
       <c r="L109" s="11">
         <v>7.98</v>
       </c>
-      <c r="M109" s="24">
+      <c r="M109" s="23">
         <f t="shared" si="1"/>
         <v>21.251512820512822</v>
       </c>
@@ -5440,7 +5469,7 @@
       <c r="L110" s="15">
         <v>7.39</v>
       </c>
-      <c r="M110" s="24">
+      <c r="M110" s="23">
         <f t="shared" si="1"/>
         <v>13.31</v>
       </c>
@@ -5482,7 +5511,7 @@
       <c r="L111" s="15">
         <v>5.21</v>
       </c>
-      <c r="M111" s="24">
+      <c r="M111" s="23">
         <f t="shared" si="1"/>
         <v>13.035769230769231</v>
       </c>
@@ -5524,7 +5553,7 @@
       <c r="L112" s="15">
         <v>1.22</v>
       </c>
-      <c r="M112" s="24">
+      <c r="M112" s="23">
         <f t="shared" si="1"/>
         <v>3.0407692307692309</v>
       </c>
@@ -5566,7 +5595,7 @@
       <c r="L113" s="15">
         <v>11.69</v>
       </c>
-      <c r="M113" s="24">
+      <c r="M113" s="23">
         <f t="shared" si="1"/>
         <v>33.892692307692307</v>
       </c>
@@ -5608,7 +5637,7 @@
       <c r="L114" s="15">
         <v>8.41</v>
       </c>
-      <c r="M114" s="24">
+      <c r="M114" s="23">
         <f t="shared" si="1"/>
         <v>26.071153846153848</v>
       </c>
@@ -5650,7 +5679,7 @@
       <c r="L115" s="15">
         <v>9.02</v>
       </c>
-      <c r="M115" s="24">
+      <c r="M115" s="23">
         <f t="shared" si="1"/>
         <v>23.46423076923077</v>
       </c>
@@ -5692,7 +5721,7 @@
       <c r="L116" s="15">
         <v>6.66</v>
       </c>
-      <c r="M116" s="24">
+      <c r="M116" s="23">
         <f t="shared" si="1"/>
         <v>18.633846153846154</v>
       </c>
@@ -5734,7 +5763,7 @@
       <c r="L117" s="15">
         <v>1.41</v>
       </c>
-      <c r="M117" s="24">
+      <c r="M117" s="23">
         <f t="shared" si="1"/>
         <v>5.5084615384615381</v>
       </c>
@@ -5776,7 +5805,7 @@
       <c r="L118" s="15">
         <v>11.85</v>
       </c>
-      <c r="M118" s="24">
+      <c r="M118" s="23">
         <f t="shared" si="1"/>
         <v>13.035769230769231</v>
       </c>
@@ -5818,7 +5847,7 @@
       <c r="L119" s="15">
         <v>10.24</v>
       </c>
-      <c r="M119" s="24">
+      <c r="M119" s="23">
         <f t="shared" si="1"/>
         <v>39.93</v>
       </c>
@@ -5860,7 +5889,7 @@
       <c r="L120" s="15">
         <v>19.309999999999999</v>
       </c>
-      <c r="M120" s="24">
+      <c r="M120" s="23">
         <f t="shared" si="1"/>
         <v>156.42692307692306</v>
       </c>
@@ -5902,7 +5931,7 @@
       <c r="L121" s="15">
         <v>10.81</v>
       </c>
-      <c r="M121" s="24">
+      <c r="M121" s="23">
         <f t="shared" si="1"/>
         <v>44.321153846153841</v>
       </c>
@@ -5944,7 +5973,7 @@
       <c r="L122" s="15">
         <v>24.25</v>
       </c>
-      <c r="M122" s="24">
+      <c r="M122" s="23">
         <f t="shared" si="1"/>
         <v>104.28461538461539</v>
       </c>
@@ -5986,7 +6015,7 @@
       <c r="L123" s="15">
         <v>21.78</v>
       </c>
-      <c r="M123" s="24">
+      <c r="M123" s="23">
         <f t="shared" si="1"/>
         <v>23.958076923076923</v>
       </c>
@@ -6014,7 +6043,7 @@
       <c r="L124" s="11">
         <v>11.61</v>
       </c>
-      <c r="M124" s="24">
+      <c r="M124" s="23">
         <f t="shared" si="1"/>
         <v>37.065192307692307</v>
       </c>
@@ -6042,7 +6071,7 @@
       <c r="L125" s="18">
         <v>10.38</v>
       </c>
-      <c r="M125" s="24">
+      <c r="M125" s="23">
         <f t="shared" si="1"/>
         <v>36.051859562455896</v>
       </c>
@@ -6090,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L50"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7923,260 +7952,1194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="31.296875" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>42028.513888888891</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>276.85000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.7</v>
+      </c>
+      <c r="G2">
+        <v>15.21</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>42028.661805555559</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>42028.724999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>677.85</v>
+      </c>
+      <c r="F3">
+        <v>2.4</v>
+      </c>
+      <c r="G3">
+        <v>10.86</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>42028.723611111112</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>346.06</v>
+      </c>
+      <c r="F4">
+        <v>2.7</v>
+      </c>
+      <c r="G4">
+        <v>4.93</v>
+      </c>
+      <c r="H4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>42028.725011574075</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>610.07000000000005</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5.87</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>42028.779861111114</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>406.71</v>
+      </c>
+      <c r="F6">
+        <v>1.7</v>
+      </c>
+      <c r="G6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>42028.802083333336</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>1186.24</v>
+      </c>
+      <c r="F7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G7">
+        <v>9.31</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>42028.815972222219</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>338.93</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>13.04</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>42028.887499999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1525.16</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>13.04</v>
+      </c>
+      <c r="H9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>42028.922222222223</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1355.7</v>
+      </c>
+      <c r="F10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G10">
+        <v>5.99</v>
+      </c>
+      <c r="H10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>42028.924305555556</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>692.12</v>
+      </c>
+      <c r="F11">
+        <v>1.3</v>
+      </c>
+      <c r="G11">
+        <v>20.48</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>42028.93472222222</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1038.18</v>
+      </c>
+      <c r="F12">
+        <v>4.8</v>
+      </c>
+      <c r="G12">
+        <v>8.32</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>42028.943749999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>42028.922222222223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>42028.924305555556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>677.85</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <v>5.79</v>
+      </c>
+      <c r="H13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>42028.986805555556</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>474.5</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>7.3</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>42029.318749999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>276.85000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>13.31</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>42029.378472222219</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>271.14</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>20.86</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>42029.440972222219</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>346.06</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>26.62</v>
+      </c>
+      <c r="H17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>42029.517361111109</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>346.06</v>
+      </c>
+      <c r="F18">
+        <v>1.2</v>
+      </c>
+      <c r="G18">
+        <v>11.09</v>
+      </c>
+      <c r="H18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>42029.743750000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>508.39</v>
+      </c>
+      <c r="F19">
+        <v>1.5</v>
+      </c>
+      <c r="G19">
+        <v>13.04</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>42029.747916666667</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1730.3</v>
+      </c>
+      <c r="F20">
+        <v>5.6</v>
+      </c>
+      <c r="G20">
+        <v>11.88</v>
+      </c>
+      <c r="H20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>42029.76666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>508.39</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+      <c r="G21">
+        <v>13.04</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>42029.956250000003</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>622.91</v>
+      </c>
+      <c r="F22">
+        <v>2.9</v>
+      </c>
+      <c r="G22">
+        <v>8.26</v>
+      </c>
+      <c r="H22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>42030.000694444447</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>622.91</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>9.58</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>42030.038888888892</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>622.91</v>
+      </c>
+      <c r="F24">
+        <v>1.9</v>
+      </c>
+      <c r="G24">
+        <v>12.61</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>42030.084722222222</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>508.39</v>
+      </c>
+      <c r="F25">
+        <v>1.6</v>
+      </c>
+      <c r="G25">
+        <v>12.22</v>
+      </c>
+      <c r="H25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>42030.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>42029.747916666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>508.39</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>19.55</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>42030.100694444445</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>847.31</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>42030.102777777778</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>847.31</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>42030.104861111111</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>622.91</v>
+      </c>
+      <c r="F29">
+        <v>0.9</v>
+      </c>
+      <c r="G29">
+        <v>26.62</v>
+      </c>
+      <c r="H29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>42030.111805555556</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>338.93</v>
+      </c>
+      <c r="F30">
+        <v>0.7</v>
+      </c>
+      <c r="G30">
+        <v>18.62</v>
+      </c>
+      <c r="H30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
         <v>42030.122916666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>42029.956250000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>42030.000694444447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <v>42030.038888888892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
-        <v>42030.104861111111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>42030.100694444445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
-        <v>42030.102777777778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>338.93</v>
+      </c>
+      <c r="F31">
+        <v>0.6</v>
+      </c>
+      <c r="G31">
+        <v>21.73</v>
+      </c>
+      <c r="H31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <v>42030.839583333334</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>1038.18</v>
+      </c>
+      <c r="F32">
+        <v>6.6</v>
+      </c>
+      <c r="G32">
+        <v>6.05</v>
+      </c>
+      <c r="H32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>42030.840277777781</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>10.65</v>
+      </c>
+      <c r="H33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>42030.875694444447</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>508.39</v>
+      </c>
+      <c r="F34">
+        <v>2.4</v>
+      </c>
+      <c r="G34">
+        <v>8.15</v>
+      </c>
+      <c r="H34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>42030.894444444442</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>1220.1300000000001</v>
+      </c>
+      <c r="F35">
+        <v>4.2</v>
+      </c>
+      <c r="G35">
+        <v>11.17</v>
+      </c>
+      <c r="H35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>42030.898611111108</v>
+      </c>
+      <c r="B36">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>881.21</v>
+      </c>
+      <c r="F36">
+        <v>2.7</v>
+      </c>
+      <c r="G36">
+        <v>12.55</v>
+      </c>
+      <c r="H36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>42030.9</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>1016.78</v>
+      </c>
+      <c r="F37">
+        <v>4.8</v>
+      </c>
+      <c r="G37">
+        <v>8.15</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>42030.90902777778</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>3322.18</v>
+      </c>
+      <c r="F38">
+        <v>12.9</v>
+      </c>
+      <c r="G38">
+        <v>9.91</v>
+      </c>
+      <c r="H38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
         <v>42030.915972222225</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>42030.894444444442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>42030.840277777781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>1084.56</v>
+      </c>
+      <c r="F39">
+        <v>3.6</v>
+      </c>
+      <c r="G39">
+        <v>11.59</v>
+      </c>
+      <c r="H39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
         <v>42030.917361111111</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>42030.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>42030.90902777778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
-        <v>42030.898611111108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40">
+        <v>1016.78</v>
+      </c>
+      <c r="F40">
+        <v>2.7</v>
+      </c>
+      <c r="G40">
+        <v>14.48</v>
+      </c>
+      <c r="H40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
         <v>42030.925000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>59.92</v>
+      </c>
+      <c r="F41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
         <v>42030.940972222219</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>761.33</v>
+      </c>
+      <c r="F42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G42">
+        <v>13.31</v>
+      </c>
+      <c r="H42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
         <v>42030.970138888886</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>63.84</v>
+      </c>
+      <c r="F43">
+        <v>1.7</v>
+      </c>
+      <c r="G43">
+        <v>1.44</v>
+      </c>
+      <c r="H43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
         <v>42030.977777777778</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>4914.41</v>
+      </c>
+      <c r="F44">
+        <v>14.8</v>
+      </c>
+      <c r="G44">
+        <v>12.77</v>
+      </c>
+      <c r="H44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
         <v>42030.98541666667</v>
       </c>
-      <c r="B45" s="25">
-        <v>42028</v>
-      </c>
-      <c r="C45" s="22">
-        <f>+A45-B45</f>
-        <v>2.9854166666700621</v>
-      </c>
-      <c r="D45">
-        <f>+C45*24</f>
-        <v>71.650000000081491</v>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="E45">
-        <f>+D45*60</f>
-        <v>4299.0000000048894</v>
+        <v>3219.79</v>
+      </c>
+      <c r="F45">
+        <v>6.2</v>
+      </c>
+      <c r="G45">
+        <v>19.97</v>
+      </c>
+      <c r="H45">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H45">
+    <sortCondition ref="A2:A45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SpotAct.xlsx
+++ b/SpotAct.xlsx
@@ -7954,8 +7954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
